--- a/app/upload/interface.xlsx
+++ b/app/upload/interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="25920" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>接口</t>
+  </si>
+  <si>
+    <t>编号</t>
   </si>
   <si>
     <t>项目名字</t>
@@ -47,24 +50,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,29 +94,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -136,9 +125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +187,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,61 +217,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,121 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,21 +431,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +485,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -517,148 +513,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,29 +1014,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1062,10 +1058,13 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app/upload/interface.xlsx
+++ b/app/upload/interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25920" windowHeight="7500"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>接口</t>
   </si>
@@ -36,6 +36,9 @@
     <t>接口url</t>
   </si>
   <si>
+    <t>请求头</t>
+  </si>
+  <si>
     <t>请求方式</t>
   </si>
   <si>
@@ -50,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,6 +67,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -71,9 +90,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,122 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,181 +226,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +411,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,38 +462,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,25 +498,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,142 +531,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,36 +1016,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1062,7 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
@@ -1061,10 +1071,13 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1073,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1090,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/app/upload/interface.xlsx
+++ b/app/upload/interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>接口</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>请求返回示例</t>
+  </si>
+  <si>
+    <t>ming</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>asdasdasdasdasdasd</t>
+  </si>
+  <si>
+    <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
+    <t>asdfasdfadsf</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>sddasdasdas</t>
   </si>
 </sst>
 </file>
@@ -53,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +91,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF93A2A9"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -75,67 +151,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,69 +197,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,192 +250,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3F4F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -414,33 +450,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F5F8"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -462,17 +477,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,16 +534,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,137 +576,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,6 +717,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,13 +1073,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="6" max="6" width="9" style="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
@@ -1046,7 +1097,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1073,6 +1124,35 @@
       </c>
       <c r="I2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/app/upload/interface.xlsx
+++ b/app/upload/interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>接口</t>
   </si>
@@ -36,6 +36,9 @@
     <t>接口url</t>
   </si>
   <si>
+    <t>接口协议</t>
+  </si>
+  <si>
     <t>请求头</t>
   </si>
   <si>
@@ -48,7 +51,7 @@
     <t>请求返回示例</t>
   </si>
   <si>
-    <t>ming</t>
+    <t>昨夜西222树</t>
   </si>
   <si>
     <t>test</t>
@@ -60,6 +63,9 @@
     <t>http://www.tuling123.com/openapi/api</t>
   </si>
   <si>
+    <t>http</t>
+  </si>
+  <si>
     <t>asdfasdfadsf</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
   </si>
   <si>
     <t>sddasdasdas</t>
+  </si>
+  <si>
+    <t>昨夜西2ww22树</t>
   </si>
 </sst>
 </file>
@@ -77,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +100,98 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF93A2A9"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,60 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,51 +236,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,7 +253,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F4F6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,60 +403,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,72 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -450,35 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFF2F5F8"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +477,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -509,6 +497,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,30 +544,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,137 +564,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,12 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,31 +1055,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1113,10 +1097,10 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
@@ -1125,39 +1109,141 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="54" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
